--- a/biology/Zoologie/Dolomedes_scriptus/Dolomedes_scriptus.xlsx
+++ b/biology/Zoologie/Dolomedes_scriptus/Dolomedes_scriptus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes scriptus est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes scriptus est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas, en Oklahoma, en Arkansas, au Mississippi, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Tennessee, au Missouri, au Kansas, au Nebraska, en Iowa, au Minnesota, au Wisconsin, en Illinois, en Indiana, au Michigan, en Ohio, en Virginie-Occidentale, au Maryland, au Delaware, en Pennsylvanie, au New Jersey, dans l'État de New York, au Connecticut, au Rhode Island, au Massachusetts, au Vermont, au New Hampshire et au Maine et au Canada au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick et en Nouvelle-Écosse[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Texas, en Oklahoma, en Arkansas, au Mississippi, en Alabama, en Floride, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Tennessee, au Missouri, au Kansas, au Nebraska, en Iowa, au Minnesota, au Wisconsin, en Illinois, en Indiana, au Michigan, en Ohio, en Virginie-Occidentale, au Maryland, au Delaware, en Pennsylvanie, au New Jersey, dans l'État de New York, au Connecticut, au Rhode Island, au Massachusetts, au Vermont, au New Hampshire et au Maine et au Canada au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick et en Nouvelle-Écosse,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hentz, 1845 : Descriptions and figures of the araneides of the United States. Boston Journal of Natural History, vol. 5, p. 189-202 (texte intégral).</t>
         </is>
